--- a/Doc/1. 프로토콜/PC연동_프로토콜_V1_251017.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V1_251017.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6E925-FC07-48D6-8F0F-84175E00414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAC9950-B8B2-43FD-9485-1B0C5055771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-15" windowWidth="16440" windowHeight="29040" activeTab="1" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="데이터 패킷" sheetId="2" r:id="rId1"/>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -867,7 +867,7 @@
   <dimension ref="B4:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,7 +928,7 @@
   <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
